--- a/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -19,56 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_wrong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배경음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드닫음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>틀림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,19 +37,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sound/bgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/se1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/se2</t>
+    <t>Sound/SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튕기는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce_1</t>
+  </si>
+  <si>
+    <t>Bounce_2</t>
+  </si>
+  <si>
+    <t>Bounce_3</t>
+  </si>
+  <si>
+    <t>Bounce_4</t>
+  </si>
+  <si>
+    <t>Bounce_5</t>
+  </si>
+  <si>
+    <t>Explosion_Hit</t>
+  </si>
+  <si>
+    <t>Explosion_Over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound/BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Heart_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Heart_Notwork</t>
+  </si>
+  <si>
+    <t>AddScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,16 +487,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,13 +518,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,13 +529,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,13 +540,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,13 +551,87 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -86,7 +86,7 @@
     <t>Buy_Heart_Notwork</t>
   </si>
   <si>
-    <t>AddScore</t>
+    <t>AddCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,18 +75,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buy_Heart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy_Heart_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buy_Heart_Notwork</t>
-  </si>
-  <si>
     <t>AddCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Item_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy_Item_Notwork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -620,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,7 +636,18 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,6 +654,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/MLFramework/2_SoundManager/Table/SoundTable.xlsx
@@ -51,15 +51,6 @@
     <t>Bounce_2</t>
   </si>
   <si>
-    <t>Bounce_3</t>
-  </si>
-  <si>
-    <t>Bounce_4</t>
-  </si>
-  <si>
-    <t>Bounce_5</t>
-  </si>
-  <si>
     <t>Explosion_Hit</t>
   </si>
   <si>
@@ -96,6 +87,18 @@
   </si>
   <si>
     <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect star 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +487,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -593,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -640,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -651,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
